--- a/src/assets/NCAA_06_School_Data.xlsx
+++ b/src/assets/NCAA_06_School_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\NCAA-PS2-Scheduler-UI\resources\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jared.boleyn.ESNI\Documents\GitHub\ncaa-06-scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4073E90-5C34-4AED-B26D-FAF64AD0900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8F7767-5934-43BF-B3B3-9284EB351D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27045" yWindow="795" windowWidth="23535" windowHeight="18525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30375" yWindow="1635" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BB$1121</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="706">
   <si>
     <t>TGID</t>
   </si>
@@ -2103,69 +2103,6 @@
     <t>1AANW</t>
   </si>
   <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>Roadrunners</t>
-  </si>
-  <si>
-    <t>South Alabama</t>
-  </si>
-  <si>
-    <t>Old Dominon</t>
-  </si>
-  <si>
-    <t>Monarchs</t>
-  </si>
-  <si>
-    <t>Coastal Carolina</t>
-  </si>
-  <si>
-    <t>Chanticleers</t>
-  </si>
-  <si>
-    <t>#006F71</t>
-  </si>
-  <si>
-    <t>#A27752</t>
-  </si>
-  <si>
-    <t>#BF0D3E</t>
-  </si>
-  <si>
-    <t>Flames</t>
-  </si>
-  <si>
-    <t>https://teamcolorcodes.com/wp-content/uploads/2018/08/south_alabama_jaguars_logo-300x238.png</t>
-  </si>
-  <si>
-    <t>https://teamcolorcodes.com/wp-content/uploads/2018/07/coastal_carolina_chanticleers_logo-268x300.png</t>
-  </si>
-  <si>
-    <t>https://teamcolorcodes.com/wp-content/uploads/2018/08/old_dominion_university_colors-300x254.png</t>
-  </si>
-  <si>
-    <t>#7C878E</t>
-  </si>
-  <si>
-    <t>https://teamcolorcodes.com/wp-content/uploads/2020/02/Liberty-Flames-Logo.png</t>
-  </si>
-  <si>
-    <t>#002D62</t>
-  </si>
-  <si>
-    <t>#C41230</t>
-  </si>
-  <si>
-    <t>#F15A22</t>
-  </si>
-  <si>
-    <t>https://teamcolorcodes.com/wp-content/uploads/2018/08/UTSA_roadrunners_logo-300x107.png</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
@@ -2176,6 +2113,39 @@
   </si>
   <si>
     <t>#046A38</t>
+  </si>
+  <si>
+    <t>1AA Midwest</t>
+  </si>
+  <si>
+    <t>1AAMW</t>
+  </si>
+  <si>
+    <t>1AA Southeast</t>
+  </si>
+  <si>
+    <t>1AASE</t>
+  </si>
+  <si>
+    <t>1AA West</t>
+  </si>
+  <si>
+    <t>1AAW</t>
+  </si>
+  <si>
+    <t>1AA East</t>
+  </si>
+  <si>
+    <t>1AAE</t>
+  </si>
+  <si>
+    <t>Hofstra</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/05/Hofstra_Pride_wordmark.svg</t>
   </si>
 </sst>
 </file>
@@ -2686,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB1121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2698,7 +2668,7 @@
     <col min="4" max="4" width="17.42578125" style="11" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="129.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="11" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="11" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" style="11" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" style="11" customWidth="1"/>
@@ -13388,30 +13358,20 @@
       <c r="BA145" s="10"/>
     </row>
     <row r="146" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="17">
+      <c r="A146" s="5">
         <v>160</v>
       </c>
-      <c r="B146" s="17" t="s">
-        <v>694</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="E146" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="F146" s="17" t="s">
+      <c r="B146" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="G146" s="18" t="s">
-        <v>703</v>
-      </c>
-      <c r="H146" s="17" t="s">
-        <v>390</v>
-      </c>
+      <c r="C146" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="17"/>
       <c r="I146" s="17"/>
       <c r="J146" s="17"/>
       <c r="K146" s="17"/>
@@ -13459,30 +13419,20 @@
       <c r="BA146" s="5"/>
     </row>
     <row r="147" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="17">
+      <c r="A147" s="5">
         <v>161</v>
       </c>
-      <c r="B147" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E147" s="17" t="s">
-        <v>708</v>
-      </c>
-      <c r="F147" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="G147" s="18" t="s">
-        <v>707</v>
-      </c>
-      <c r="H147" s="17" t="s">
-        <v>697</v>
-      </c>
+      <c r="B147" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="17"/>
       <c r="I147" s="17"/>
       <c r="J147" s="17"/>
       <c r="K147" s="17"/>
@@ -13530,13 +13480,13 @@
       <c r="BA147" s="5"/>
     </row>
     <row r="148" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="17">
+      <c r="A148" s="5">
         <v>162</v>
       </c>
-      <c r="B148" s="17" t="s">
+      <c r="B148" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="5" t="s">
         <v>690</v>
       </c>
       <c r="D148" s="17"/>
@@ -13591,30 +13541,20 @@
       <c r="BA148" s="5"/>
     </row>
     <row r="149" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="17">
+      <c r="A149" s="5">
         <v>163</v>
       </c>
-      <c r="B149" s="17" t="s">
-        <v>692</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>693</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E149" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="F149" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G149" s="18" t="s">
-        <v>711</v>
-      </c>
-      <c r="H149" s="17" t="s">
-        <v>612</v>
-      </c>
+      <c r="B149" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="17"/>
       <c r="I149" s="17"/>
       <c r="J149" s="17"/>
       <c r="K149" s="17"/>
@@ -13662,27 +13602,19 @@
       <c r="BA149" s="5"/>
     </row>
     <row r="150" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="17">
+      <c r="A150" s="5">
         <v>164</v>
       </c>
-      <c r="B150" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E150" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F150" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="G150" s="18" t="s">
-        <v>705</v>
-      </c>
+      <c r="B150" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="18"/>
       <c r="H150" s="17"/>
       <c r="I150" s="17"/>
       <c r="J150" s="17"/>
@@ -13812,26 +13744,24 @@
         <v>178</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>699</v>
+        <v>576</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>700</v>
+        <v>482</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>704</v>
-      </c>
-      <c r="H152" s="20" t="s">
-        <v>691</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="H152" s="20"/>
       <c r="I152" s="21"/>
       <c r="J152" s="19"/>
       <c r="K152" s="21"/>
@@ -14175,22 +14105,22 @@
         <v>183</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="D157" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="F157" s="17" t="s">
         <v>569</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="H157" s="17" t="s">
         <v>129</v>
@@ -38022,14 +37952,9 @@
     <hyperlink ref="G166" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
     <hyperlink ref="G168" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="G188" r:id="rId134" xr:uid="{F6C973D9-966A-4FE6-BD6F-C2F1AFBBB6DC}"/>
-    <hyperlink ref="G152" r:id="rId135" xr:uid="{3A13377E-5A24-4BB8-8F0D-AD355A984CB7}"/>
-    <hyperlink ref="G147" r:id="rId136" xr:uid="{A71E13A2-59FB-457E-A7B3-216ADF3A6503}"/>
-    <hyperlink ref="G146" r:id="rId137" xr:uid="{7BBD6B85-DDEE-4089-81E6-C49FD793950C}"/>
-    <hyperlink ref="G150" r:id="rId138" xr:uid="{70367677-2DF0-4569-AEC8-F616878383E4}"/>
-    <hyperlink ref="G149" r:id="rId139" xr:uid="{8F2DD586-FDD8-4BE0-82D0-43D38E8E9307}"/>
-    <hyperlink ref="G157" r:id="rId140" xr:uid="{82004316-3D12-443D-83CC-C3AC32C575F0}"/>
+    <hyperlink ref="G157" r:id="rId135" xr:uid="{82004316-3D12-443D-83CC-C3AC32C575F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId141"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId136"/>
 </worksheet>
 </file>